--- a/Excel_Files/Dynamic_Range/1.5_cm/686_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/1.5_cm/686_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>341.29</v>
+        <v>13.367</v>
       </c>
       <c r="D2">
-        <v>1140.411</v>
+        <v>18.734</v>
       </c>
       <c r="E2">
-        <v>1010.28</v>
+        <v>21.199</v>
       </c>
       <c r="F2">
-        <v>2908.222</v>
+        <v>35.796</v>
       </c>
       <c r="G2">
-        <v>1148.231</v>
+        <v>27.26</v>
       </c>
       <c r="H2">
-        <v>5241.531</v>
+        <v>40.528</v>
       </c>
       <c r="I2">
-        <v>643.467</v>
+        <v>17.279</v>
       </c>
       <c r="J2">
-        <v>1016.326</v>
+        <v>20.035</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>85.285</v>
+        <v>7.942</v>
       </c>
       <c r="D3">
-        <v>302.387</v>
+        <v>9.734</v>
       </c>
       <c r="E3">
-        <v>182.616</v>
+        <v>10.324</v>
       </c>
       <c r="F3">
-        <v>239.847</v>
+        <v>13.191</v>
       </c>
       <c r="G3">
-        <v>373.705</v>
+        <v>16.332</v>
       </c>
       <c r="H3">
-        <v>486.58</v>
+        <v>15.532</v>
       </c>
       <c r="I3">
-        <v>147.878</v>
+        <v>9.587999999999999</v>
       </c>
       <c r="J3">
-        <v>87.136</v>
+        <v>8.724</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>25.664</v>
+        <v>4.764</v>
       </c>
       <c r="D4">
-        <v>43.814</v>
+        <v>5.162</v>
       </c>
       <c r="E4">
-        <v>46.207</v>
+        <v>5.627</v>
       </c>
       <c r="F4">
-        <v>30.172</v>
+        <v>5.144</v>
       </c>
       <c r="G4">
-        <v>46.498</v>
+        <v>6.471</v>
       </c>
       <c r="H4">
-        <v>63.409</v>
+        <v>6.924</v>
       </c>
       <c r="I4">
-        <v>57.832</v>
+        <v>6.501</v>
       </c>
       <c r="J4">
-        <v>15.766</v>
+        <v>3.973</v>
       </c>
     </row>
   </sheetData>
